--- a/biology/Médecine/Études_de_médecine_en_Suisse/Études_de_médecine_en_Suisse.xlsx
+++ b/biology/Médecine/Études_de_médecine_en_Suisse/Études_de_médecine_en_Suisse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tudes_de_m%C3%A9decine_en_Suisse</t>
+          <t>Études_de_médecine_en_Suisse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En Suisse, les études de médecine sont régies par une loi fédérale qui laisse la possibilité aux facultés de médecine de s'organiser. 
 Les six facultés suisses sont celles des universités de Bâle, Zurich, Berne, Fribourg, Genève et Lausanne. Les études durent six ans mais leur contenu diffère donc selon les facultés.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tudes_de_m%C3%A9decine_en_Suisse</t>
+          <t>Études_de_médecine_en_Suisse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Admission</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les conditions d'admission de base sont les mêmes que pour les autres études universitaires : un certificat de maturité est nécessaire[1]. Certaines universités, soit Bâle, Berne, Fribourg et Zurich exigent de plus un examen d'entrée sous la forme d'un test d'aptitude. (principe du numerus clausus)[2],[3]. Les autres procèdent à la sélection à l'issue de la première année[4]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les conditions d'admission de base sont les mêmes que pour les autres études universitaires : un certificat de maturité est nécessaire. Certaines universités, soit Bâle, Berne, Fribourg et Zurich exigent de plus un examen d'entrée sous la forme d'un test d'aptitude. (principe du numerus clausus),. Les autres procèdent à la sélection à l'issue de la première année. 
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89tudes_de_m%C3%A9decine_en_Suisse</t>
+          <t>Études_de_médecine_en_Suisse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Universités et hôpitaux universitaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les études de médecine sont assurées par six universités suisses (ou sept, si l'on compte celle de Neuchâtel qui enseigne uniquement la première des six années des études de médecine) :
 Faculté de médecine de l'Université de Bâle (voir aussi Hôpital universitaire de Bâle)
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89tudes_de_m%C3%A9decine_en_Suisse</t>
+          <t>Études_de_médecine_en_Suisse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Cursus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La formation prégraduée universitaire dure six ans, et s'effectue en bachelor puis en master[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La formation prégraduée universitaire dure six ans, et s'effectue en bachelor puis en master.
 </t>
         </is>
       </c>
